--- a/medicine/Autisme/La_Tête_dans_les_nuages_(film,_1986)/La_Tête_dans_les_nuages_(film,_1986).xlsx
+++ b/medicine/Autisme/La_Tête_dans_les_nuages_(film,_1986)/La_Tête_dans_les_nuages_(film,_1986).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_T%C3%AAte_dans_les_nuages_(film,_1986)</t>
+          <t>La_Tête_dans_les_nuages_(film,_1986)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Tête dans les nuages (The Boy Who Could Fly) est un film américain fantastique réalisé par Nick Castle, sorti en 1986.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_T%C3%AAte_dans_les_nuages_(film,_1986)</t>
+          <t>La_Tête_dans_les_nuages_(film,_1986)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Milly et Louis, qui ont eu la douleur de perdre leur père, s'installent avec leur mère, Charlène, dans une nouvelle maison. Malgré de nombreux soucis personnels, Milly parvient à devenir ami avec Eric, leur nouveau voisin, qui est autiste. Ce jeune homme est fasciné par le fait de voler, et embrasse le fol espoir de pouvoir réussir à lui-même voler... 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_T%C3%AAte_dans_les_nuages_(film,_1986)</t>
+          <t>La_Tête_dans_les_nuages_(film,_1986)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Tête dans les nuages
 Titre original : The Boy Who Could Fly
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_T%C3%AAte_dans_les_nuages_(film,_1986)</t>
+          <t>La_Tête_dans_les_nuages_(film,_1986)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lucy Deakins : Milly
 Jay Underwood : Eric
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_T%C3%AAte_dans_les_nuages_(film,_1986)</t>
+          <t>La_Tête_dans_les_nuages_(film,_1986)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Saturn Award du meilleur film fantastique 1987
 Nomination au Saturn Award du meilleur jeune acteur 1987 (Lucy Deakins)
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_T%C3%AAte_dans_les_nuages_(film,_1986)</t>
+          <t>La_Tête_dans_les_nuages_(film,_1986)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +685,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La bande originale du film, composée et dirigée Bruce Broughton, a été réenregistrée pour une sortie en CD par le label Varèse Sarabande en 1986. À cette occasion, les musiques ont été ré-interprétées par le Sinfonia of London et dirigées par Bruce Broughton lui-même. Néanmoins, seuls quelques morceaux choisis, et non pas l'intégralité de la bande originale, furent retenus pour cette édition CD :
 Main Title (2:36)
